--- a/biology/Écologie/Environmental_Ethics/Environmental_Ethics.xlsx
+++ b/biology/Écologie/Environmental_Ethics/Environmental_Ethics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Environmental Ethics est une revue académique trimestrielle à comité de lecture couvrant la philosophie environnementale et notamment l'Éthique de l'environnement. Elle a été créée en 1979 par Eugene Hargrove[1] et est publiée par le Philosophy Documentation Center pour le compte du Center for Environmental Philosophy (Université de North Texas). Le rédacteur en chef est Allan A. Thompson (Université d'État de l'Oregon).
+Environmental Ethics est une revue académique trimestrielle à comité de lecture couvrant la philosophie environnementale et notamment l'Éthique de l'environnement. Elle a été créée en 1979 par Eugene Hargrove et est publiée par le Philosophy Documentation Center pour le compte du Center for Environmental Philosophy (Université de North Texas). Le rédacteur en chef est Allan A. Thompson (Université d'État de l'Oregon).
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Résumé et indexation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La revue est résumée et indexée dans :
 ATLA Religion Database
-Biological Abstracts[2]
-BIOSIS Previews[2]
-Current Contents/Social &amp; Behavioral Sciences[2]
+Biological Abstracts
+BIOSIS Previews
+Current Contents/Social &amp; Behavioral Sciences
 EBSCO databases
 Environmental Engineering Abstracts
 Environmental Science and Pollution Management
@@ -533,11 +547,11 @@
 ProQuest databases
 Referativny Zhurnal
 Religious and Theological Abstracts
-Scopus[3]
-Social Sciences Citation Index[2]
+Scopus
+Social Sciences Citation Index
 Sociological Abstracts
-The Zoological Record[2]
-Selon le Journal Citation Reports, la revue a un facteur d'impact 2021 de 0,472[4].
+The Zoological Record
+Selon le Journal Citation Reports, la revue a un facteur d'impact 2021 de 0,472.
 </t>
         </is>
       </c>
